--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt7b-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt7b-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Fzd10</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,10 +540,10 @@
         <v>0.218757</v>
       </c>
       <c r="I2">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J2">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,10 +558,10 @@
         <v>0.016337</v>
       </c>
       <c r="O2">
-        <v>0.1561347172047327</v>
+        <v>0.1242225162340131</v>
       </c>
       <c r="P2">
-        <v>0.1561347172047327</v>
+        <v>0.1242225162340131</v>
       </c>
       <c r="Q2">
         <v>0.0003970925676666667</v>
@@ -567,10 +570,10 @@
         <v>0.003573833109</v>
       </c>
       <c r="S2">
-        <v>0.01586927995474425</v>
+        <v>0.01835698670425539</v>
       </c>
       <c r="T2">
-        <v>0.01586927995474424</v>
+        <v>0.01835698670425538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,45 +602,45 @@
         <v>0.218757</v>
       </c>
       <c r="I3">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J3">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.02943233333333333</v>
+        <v>0.03095266666666667</v>
       </c>
       <c r="N3">
-        <v>0.08829699999999999</v>
+        <v>0.092858</v>
       </c>
       <c r="O3">
-        <v>0.8438652827952673</v>
+        <v>0.706069315814286</v>
       </c>
       <c r="P3">
-        <v>0.8438652827952673</v>
+        <v>0.7060693158142859</v>
       </c>
       <c r="Q3">
-        <v>0.002146176314333333</v>
+        <v>0.002257037500666666</v>
       </c>
       <c r="R3">
-        <v>0.019315586829</v>
+        <v>0.020313337506</v>
       </c>
       <c r="S3">
-        <v>0.08576910155867369</v>
+        <v>0.1043394179704809</v>
       </c>
       <c r="T3">
-        <v>0.08576910155867369</v>
+        <v>0.1043394179704809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,25 +649,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.6445166666666666</v>
+        <v>0.072919</v>
       </c>
       <c r="H4">
-        <v>1.93355</v>
+        <v>0.218757</v>
       </c>
       <c r="I4">
-        <v>0.8983616184865821</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J4">
-        <v>0.898361618486582</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -673,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.005445666666666667</v>
+        <v>0.007439666666666666</v>
       </c>
       <c r="N4">
-        <v>0.016337</v>
+        <v>0.022319</v>
       </c>
       <c r="O4">
-        <v>0.1561347172047327</v>
+        <v>0.169708167951701</v>
       </c>
       <c r="P4">
-        <v>0.1561347172047327</v>
+        <v>0.169708167951701</v>
       </c>
       <c r="Q4">
-        <v>0.003509822927777778</v>
+        <v>0.0005424930536666666</v>
       </c>
       <c r="R4">
-        <v>0.03158840635</v>
+        <v>0.004882437483</v>
       </c>
       <c r="S4">
-        <v>0.1402654372499885</v>
+        <v>0.02507863048615265</v>
       </c>
       <c r="T4">
-        <v>0.1402654372499885</v>
+        <v>0.02507863048615265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -717,46 +720,170 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6445166666666666</v>
+        <v>0.420527</v>
       </c>
       <c r="H5">
-        <v>1.93355</v>
+        <v>1.261581</v>
       </c>
       <c r="I5">
-        <v>0.8983616184865821</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="J5">
-        <v>0.898361618486582</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.005445666666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.016337</v>
+      </c>
+      <c r="O5">
+        <v>0.1242225162340131</v>
+      </c>
+      <c r="P5">
+        <v>0.1242225162340131</v>
+      </c>
+      <c r="Q5">
+        <v>0.002290049866333334</v>
+      </c>
+      <c r="R5">
+        <v>0.020610448797</v>
+      </c>
+      <c r="S5">
+        <v>0.1058655295297577</v>
+      </c>
+      <c r="T5">
+        <v>0.1058655295297577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.02943233333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.08829699999999999</v>
-      </c>
-      <c r="O5">
-        <v>0.8438652827952673</v>
-      </c>
-      <c r="P5">
-        <v>0.8438652827952673</v>
-      </c>
-      <c r="Q5">
-        <v>0.01896962937222222</v>
-      </c>
-      <c r="R5">
-        <v>0.17072666435</v>
-      </c>
-      <c r="S5">
-        <v>0.7580961812365936</v>
-      </c>
-      <c r="T5">
-        <v>0.7580961812365936</v>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.420527</v>
+      </c>
+      <c r="H6">
+        <v>1.261581</v>
+      </c>
+      <c r="I6">
+        <v>0.852224964839111</v>
+      </c>
+      <c r="J6">
+        <v>0.852224964839111</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.03095266666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.092858</v>
+      </c>
+      <c r="O6">
+        <v>0.706069315814286</v>
+      </c>
+      <c r="P6">
+        <v>0.7060693158142859</v>
+      </c>
+      <c r="Q6">
+        <v>0.01301643205533333</v>
+      </c>
+      <c r="R6">
+        <v>0.117147888498</v>
+      </c>
+      <c r="S6">
+        <v>0.601729897843805</v>
+      </c>
+      <c r="T6">
+        <v>0.6017298978438049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.420527</v>
+      </c>
+      <c r="H7">
+        <v>1.261581</v>
+      </c>
+      <c r="I7">
+        <v>0.852224964839111</v>
+      </c>
+      <c r="J7">
+        <v>0.852224964839111</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.007439666666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.022319</v>
+      </c>
+      <c r="O7">
+        <v>0.169708167951701</v>
+      </c>
+      <c r="P7">
+        <v>0.169708167951701</v>
+      </c>
+      <c r="Q7">
+        <v>0.003128580704333334</v>
+      </c>
+      <c r="R7">
+        <v>0.028157226339</v>
+      </c>
+      <c r="S7">
+        <v>0.1446295374655483</v>
+      </c>
+      <c r="T7">
+        <v>0.1446295374655483</v>
       </c>
     </row>
   </sheetData>
